--- a/docs/collections/naoe/metadata/data.xlsx
+++ b/docs/collections/naoe/metadata/data.xlsx
@@ -48,7 +48,7 @@
     <t>dcterms:references</t>
   </si>
   <si>
-    <t>機械可読データ</t>
+    <t>機械可読ドキュメント</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/13</t>
@@ -57,46 +57,46 @@
     <t>dcterms:isReferencedBy</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/13/manifest</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>daaf81b0-f1a7-435c-9216-a8fb56390887</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/85/full/200,151/0/default.jpg</t>
   </si>
   <si>
-    <t>マニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/13/manifest</t>
-  </si>
-  <si>
-    <t>ソート用</t>
-  </si>
-  <si>
-    <t>コレクション名</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>daaf81b0-f1a7-435c-9216-a8fb56390887</t>
-  </si>
-  <si>
-    <t>所蔵</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>サイトURL</t>
+    <t>ウェブサイトURL</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/</t>
@@ -490,19 +490,19 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
         <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" t="s">
         <v>22</v>
@@ -539,20 +539,20 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
         <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>24</v>
@@ -575,9 +575,9 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
     <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="H2" r:id="rId4"/>
-    <hyperlink ref="I2" r:id="rId5"/>
-    <hyperlink ref="O2" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="I2" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId5" location="rightToLeftDirection"/>
+    <hyperlink ref="O2" r:id="rId6"/>
     <hyperlink ref="P2" r:id="rId7"/>
     <hyperlink ref="Q2" r:id="rId8"/>
     <hyperlink ref="R2" r:id="rId9"/>

--- a/docs/collections/naoe/metadata/data.xlsx
+++ b/docs/collections/naoe/metadata/data.xlsx
@@ -14,15 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
     <t>直江状</t>
   </si>
   <si>
     <t>説明</t>
+  </si>
+  <si>
+    <t>dcterms:description</t>
   </si>
   <si>
     <t>【解題】直江状(東京大学総合図書館所蔵承応三年刊本)_x000D_
@@ -33,91 +39,133 @@
  「直江状」は、同年の関が原の戦へとつながる家康の会津上杉攻めの口実を作ったとして従来から注目されてきた。一方で、原本が未確認であり、古文書集に収録された写本や総合図書館所蔵本のように版本として流布してきたこともあり、その表記法や内容等から歴史的資料としての信憑性を疑う説も提出されている。少なくとも総合図書館所蔵本の性格を考える上では、かつて往来物として収集されたことに留意しておいてよいだろう。</t>
   </si>
   <si>
-    <t>ライセンス</t>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
   </si>
   <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
   </si>
   <si>
+    <t>Annotated Manifest</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/8/manifest.json</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>http://tapasproject.org/tapas-commons/files/直江状</t>
+  </si>
+  <si>
+    <t>Search Api Uri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtAV%EF%BC%8BWUgecS%EF%BC%8BSsVMvlKTXaNVmk9OVUlQkEsXFV%EF%BC%8B86MGLyr5YB2lgAB9MM6QnC63BVFQ%3D</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>daaf81b0-f1a7-435c-9216-a8fb56390887</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/document/daaf81b0-f1a7-435c-9216-a8fb56390887</t>
   </si>
   <si>
-    <t>dcterms:references</t>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/85/full/200,151/0/default.jpg</t>
   </si>
   <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/13</t>
   </si>
   <si>
-    <t>dcterms:isReferencedBy</t>
-  </si>
-  <si>
-    <t>年</t>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
   </si>
   <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/13/manifest</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>daaf81b0-f1a7-435c-9216-a8fb56390887</t>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/daaf81b0-f1a7-435c-9216-a8fb56390887/manifest</t>
   </si>
   <si>
     <t>ソート用項目</t>
   </si>
   <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/85/full/200,151/0/default.jpg</t>
-  </si>
-  <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/8/manifest.json</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>http://tapasproject.org/tapas-commons/files/直江状</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtAV%EF%BC%8BWUgecS%EF%BC%8BSsVMvlKTXaNVmk9OVUlQkEsXFV%EF%BC%8B86MGLyr5YB2lgAB9MM6QnC63BVFQ%3D</t>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t># of media</t>
   </si>
 </sst>
 </file>
@@ -135,10 +183,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,14 +205,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,130 +510,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="P1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="Q1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="R1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="I2" r:id="rId4"/>
-    <hyperlink ref="J2" r:id="rId5" location="rightToLeftDirection"/>
-    <hyperlink ref="O2" r:id="rId6"/>
-    <hyperlink ref="P2" r:id="rId7"/>
-    <hyperlink ref="Q2" r:id="rId8"/>
-    <hyperlink ref="R2" r:id="rId9"/>
-    <hyperlink ref="S2" r:id="rId10"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="I3" r:id="rId6"/>
+    <hyperlink ref="J3" r:id="rId7"/>
+    <hyperlink ref="K3" r:id="rId8"/>
+    <hyperlink ref="M3" r:id="rId9" location="rightToLeftDirection"/>
+    <hyperlink ref="O3" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/naoe/metadata/data.xlsx
+++ b/docs/collections/naoe/metadata/data.xlsx
@@ -1,196 +1,201 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>直江状</t>
   </si>
   <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>【解題】直江状(東京大学総合図書館所蔵承応三年刊本)_x000D_
- 安土桃山時代から江戸時代前期の大名上杉景勝に仕えた重臣直江兼続(1560~1619)が記したとされる書状を、承応3年(1654)に京都の中村五郎右衛門が刊行したもの。全28丁からなる和装本で、大きさは26.5×17.6cm、総合図書館の貴重書に指定されている(請求番号A00:4631)。藻類学者・水産学者であった岡村金太郎(1867~1935)が収集した往来物とよばれる書簡文体の初等教科書・手本類のなかの1点であり、そのコレクションは関東大震災後の大正14年(1925)に購入・登録され、岡村文庫と称されている。_x000D_
-_x000D_
- 内容は、徳川家康への謀反の疑いをかけられた上杉景勝が上洛・弁明を求められたのに対し、上洛の困難な理由、家康への逆心のないこと、讒言を用いるべきではないこと等、直江兼続が反論を加えたもの。家康のブレーンであった京都の臨済宗豊光寺の僧・西笑承兌に宛てた、慶長5年(1600)4月14日付けの返書の形を取っている。_x000D_
-_x000D_
+    <t>【解題】直江状(東京大学総合図書館所蔵承応三年刊本)
+ 安土桃山時代から江戸時代前期の大名上杉景勝に仕えた重臣直江兼続(1560~1619)が記したとされる書状を、承応3年(1654)に京都の中村五郎右衛門が刊行したもの。全28丁からなる和装本で、大きさは26.5×17.6cm、総合図書館の貴重書に指定されている(請求番号A00:4631)。藻類学者・水産学者であった岡村金太郎(1867~1935)が収集した往来物とよばれる書簡文体の初等教科書・手本類のなかの1点であり、そのコレクションは関東大震災後の大正14年(1925)に購入・登録され、岡村文庫と称されている。
+ 内容は、徳川家康への謀反の疑いをかけられた上杉景勝が上洛・弁明を求められたのに対し、上洛の困難な理由、家康への逆心のないこと、讒言を用いるべきではないこと等、直江兼続が反論を加えたもの。家康のブレーンであった京都の臨済宗豊光寺の僧・西笑承兌に宛てた、慶長5年(1600)4月14日付けの返書の形を取っている。
  「直江状」は、同年の関が原の戦へとつながる家康の会津上杉攻めの口実を作ったとして従来から注目されてきた。一方で、原本が未確認であり、古文書集に収録された写本や総合図書館所蔵本のように版本として流布してきたこともあり、その表記法や内容等から歴史的資料としての信憑性を疑う説も提出されている。少なくとも総合図書館所蔵本の性格を考える上では、かつて往来物として収集されたことに留意しておいてよいだろう。</t>
   </si>
   <si>
-    <t>利用条件</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
   </si>
   <si>
-    <t>Annotated Manifest</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
+    <t>daaf81b0-f1a7-435c-9216-a8fb56390887</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/document/daaf81b0-f1a7-435c-9216-a8fb56390887</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/85/full/200,151/0/default.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/13</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/daaf81b0-f1a7-435c-9216-a8fb56390887/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtAV%EF%BC%8BWUgecS%EF%BC%8BSsVMvlKTXaNVmk9OVUlQkEsXFV%EF%BC%8B86MGLyr5YB2lgAB9MM6QnC63BVFQ%3D</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/8/manifest.json</t>
   </si>
   <si>
-    <t>Link to TAPAS Project</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
     <t>http://tapasproject.org/tapas-commons/files/直江状</t>
-  </si>
-  <si>
-    <t>Search Api Uri</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtAV%EF%BC%8BWUgecS%EF%BC%8BSsVMvlKTXaNVmk9OVUlQkEsXFV%EF%BC%8B86MGLyr5YB2lgAB9MM6QnC63BVFQ%3D</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>daaf81b0-f1a7-435c-9216-a8fb56390887</t>
-  </si>
-  <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/</t>
-  </si>
-  <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/document/daaf81b0-f1a7-435c-9216-a8fb56390887</t>
-  </si>
-  <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/85/full/200,151/0/default.jpg</t>
-  </si>
-  <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/13</t>
-  </si>
-  <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/daaf81b0-f1a7-435c-9216-a8fb56390887/manifest</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -205,23 +210,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -509,188 +507,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="R1" t="s">
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="K3" t="s"/>
       <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="n">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="F3" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="I3" r:id="rId6"/>
-    <hyperlink ref="J3" r:id="rId7"/>
-    <hyperlink ref="K3" r:id="rId8"/>
-    <hyperlink ref="M3" r:id="rId9" location="rightToLeftDirection"/>
-    <hyperlink ref="O3" r:id="rId10"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/naoe/metadata/data.xlsx
+++ b/docs/collections/naoe/metadata/data.xlsx
@@ -170,7 +170,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/daaf81b0-f1a7-435c-9216-a8fb56390887/manifest</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtAV%EF%BC%8BWUgecS%EF%BC%8BSsVMvlKTXaNVmk9OVUlQkEsXFV%EF%BC%8B86MGLyr5YB2lgAB9MM6QnC63BVFQ%3D</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca511282300c05c01325a12250bccd236d07b412c68619bcbdeef7aeee477b88e0a36b82a365e7547973e593dc5e5f63283f0f51ab35ab6fb637d961593c5f2ed7bb4a024a0c4b472560a27b3f28cdb73012625986b19fbb1827fec71f179323c8</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/8/manifest.json</t>

--- a/docs/collections/naoe/metadata/data.xlsx
+++ b/docs/collections/naoe/metadata/data.xlsx
@@ -143,7 +143,7 @@
  「直江状」は、同年の関が原の戦へとつながる家康の会津上杉攻めの口実を作ったとして従来から注目されてきた。一方で、原本が未確認であり、古文書集に収録された写本や総合図書館所蔵本のように版本として流布してきたこともあり、その表記法や内容等から歴史的資料としての信憑性を疑う説も提出されている。少なくとも総合図書館所蔵本の性格を考える上では、かつて往来物として収集されたことに留意しておいてよいだろう。</t>
   </si>
   <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
     <t>daaf81b0-f1a7-435c-9216-a8fb56390887</t>

--- a/docs/collections/naoe/metadata/data.xlsx
+++ b/docs/collections/naoe/metadata/data.xlsx
@@ -1,201 +1,208 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>直江状</t>
+  </si>
+  <si>
     <t>説明</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>【解題】直江状(東京大学総合図書館所蔵承応三年刊本)_x000D_
+ 安土桃山時代から江戸時代前期の大名上杉景勝に仕えた重臣直江兼続(1560~1619)が記したとされる書状を、承応3年(1654)に京都の中村五郎右衛門が刊行したもの。全28丁からなる和装本で、大きさは26.5×17.6cm、総合図書館の貴重書に指定されている(請求番号A00:4631)。藻類学者・水産学者であった岡村金太郎(1867~1935)が収集した往来物とよばれる書簡文体の初等教科書・手本類のなかの1点であり、そのコレクションは関東大震災後の大正14年(1925)に購入・登録され、岡村文庫と称されている。_x000D_
+_x000D_
+ 内容は、徳川家康への謀反の疑いをかけられた上杉景勝が上洛・弁明を求められたのに対し、上洛の困難な理由、家康への逆心のないこと、讒言を用いるべきではないこと等、直江兼続が反論を加えたもの。家康のブレーンであった京都の臨済宗豊光寺の僧・西笑承兌に宛てた、慶長5年(1600)4月14日付けの返書の形を取っている。_x000D_
+_x000D_
+ 「直江状」は、同年の関が原の戦へとつながる家康の会津上杉攻めの口実を作ったとして従来から注目されてきた。一方で、原本が未確認であり、古文書集に収録された写本や総合図書館所蔵本のように版本として流布してきたこともあり、その表記法や内容等から歴史的資料としての信憑性を疑う説も提出されている。少なくとも総合図書館所蔵本の性格を考える上では、かつて往来物として収集されたことに留意しておいてよいだろう。</t>
+  </si>
+  <si>
     <t>ライセンス</t>
   </si>
   <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>daaf81b0-f1a7-435c-9216-a8fb56390887</t>
+  </si>
+  <si>
     <t>ウェブサイトURL</t>
   </si>
   <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/document/daaf81b0-f1a7-435c-9216-a8fb56390887</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bd56abac4d291f381b7cf64e6fa3b9b6bc59b44b.jpg</t>
+  </si>
+  <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/13</t>
+  </si>
+  <si>
     <t>帰属</t>
   </si>
   <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
     <t>viewingHint</t>
   </si>
   <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
     <t>ソート用項目</t>
   </si>
   <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
     <t>西暦</t>
   </si>
   <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/daaf81b0-f1a7-435c-9216-a8fb56390887/manifest</t>
+  </si>
+  <si>
     <t>IIIF Search API URI</t>
   </si>
   <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca511282300c05c01325a12250bccd236d07b412c68619bcbdeef7aeee477b88e0a36b82a365e7547973e593dc5e5f63283f0f51ab35ab6fb637d961593c5f2ed7bb4a024a0c4b472560a27b3f28cdb73012625986b19fbb1827fec71f179323c8</t>
+  </si>
+  <si>
     <t>アノテーション付きIIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/8/manifest.json</t>
+  </si>
+  <si>
     <t>Link to TAPAS Project</t>
   </si>
   <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>http://tapasproject.org/tapas-commons/files/直江状</t>
+  </si>
+  <si>
     <t>Text with Rich Text Format</t>
   </si>
   <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t># of media</t>
-  </si>
-  <si>
-    <t>dcterms:title</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t>直江状</t>
-  </si>
-  <si>
-    <t>【解題】直江状(東京大学総合図書館所蔵承応三年刊本)
- 安土桃山時代から江戸時代前期の大名上杉景勝に仕えた重臣直江兼続(1560~1619)が記したとされる書状を、承応3年(1654)に京都の中村五郎右衛門が刊行したもの。全28丁からなる和装本で、大きさは26.5×17.6cm、総合図書館の貴重書に指定されている(請求番号A00:4631)。藻類学者・水産学者であった岡村金太郎(1867~1935)が収集した往来物とよばれる書簡文体の初等教科書・手本類のなかの1点であり、そのコレクションは関東大震災後の大正14年(1925)に購入・登録され、岡村文庫と称されている。
- 内容は、徳川家康への謀反の疑いをかけられた上杉景勝が上洛・弁明を求められたのに対し、上洛の困難な理由、家康への逆心のないこと、讒言を用いるべきではないこと等、直江兼続が反論を加えたもの。家康のブレーンであった京都の臨済宗豊光寺の僧・西笑承兌に宛てた、慶長5年(1600)4月14日付けの返書の形を取っている。
- 「直江状」は、同年の関が原の戦へとつながる家康の会津上杉攻めの口実を作ったとして従来から注目されてきた。一方で、原本が未確認であり、古文書集に収録された写本や総合図書館所蔵本のように版本として流布してきたこともあり、その表記法や内容等から歴史的資料としての信憑性を疑う説も提出されている。少なくとも総合図書館所蔵本の性格を考える上では、かつて往来物として収集されたことに留意しておいてよいだろう。</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
-  </si>
-  <si>
-    <t>daaf81b0-f1a7-435c-9216-a8fb56390887</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/document/daaf81b0-f1a7-435c-9216-a8fb56390887</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/85/full/200,151/0/default.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/13</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/daaf81b0-f1a7-435c-9216-a8fb56390887/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca511282300c05c01325a12250bccd236d07b412c68619bcbdeef7aeee477b88e0a36b82a365e7547973e593dc5e5f63283f0f51ab35ab6fb637d961593c5f2ed7bb4a024a0c4b472560a27b3f28cdb73012625986b19fbb1827fec71f179323c8</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/8/manifest.json</t>
-  </si>
-  <si>
-    <t>http://tapasproject.org/tapas-commons/files/直江状</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -210,16 +217,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -507,198 +521,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="n">
+        <v>51</v>
+      </c>
+      <c r="T2">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="P3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s">
+      <c r="R3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" t="s"/>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="J3" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="O3" r:id="rId7"/>
+    <hyperlink ref="P3" r:id="rId8"/>
+    <hyperlink ref="Q3" r:id="rId9"/>
+    <hyperlink ref="R3" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/collections/naoe/metadata/data.xlsx
+++ b/docs/collections/naoe/metadata/data.xlsx
@@ -1,208 +1,201 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>直江状</t>
   </si>
   <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>【解題】直江状(東京大学総合図書館所蔵承応三年刊本)_x000D_
- 安土桃山時代から江戸時代前期の大名上杉景勝に仕えた重臣直江兼続(1560~1619)が記したとされる書状を、承応3年(1654)に京都の中村五郎右衛門が刊行したもの。全28丁からなる和装本で、大きさは26.5×17.6cm、総合図書館の貴重書に指定されている(請求番号A00:4631)。藻類学者・水産学者であった岡村金太郎(1867~1935)が収集した往来物とよばれる書簡文体の初等教科書・手本類のなかの1点であり、そのコレクションは関東大震災後の大正14年(1925)に購入・登録され、岡村文庫と称されている。_x000D_
-_x000D_
- 内容は、徳川家康への謀反の疑いをかけられた上杉景勝が上洛・弁明を求められたのに対し、上洛の困難な理由、家康への逆心のないこと、讒言を用いるべきではないこと等、直江兼続が反論を加えたもの。家康のブレーンであった京都の臨済宗豊光寺の僧・西笑承兌に宛てた、慶長5年(1600)4月14日付けの返書の形を取っている。_x000D_
-_x000D_
+    <t>【解題】直江状(東京大学総合図書館所蔵承応三年刊本)
+ 安土桃山時代から江戸時代前期の大名上杉景勝に仕えた重臣直江兼続(1560~1619)が記したとされる書状を、承応3年(1654)に京都の中村五郎右衛門が刊行したもの。全28丁からなる和装本で、大きさは26.5×17.6cm、総合図書館の貴重書に指定されている(請求番号A00:4631)。藻類学者・水産学者であった岡村金太郎(1867~1935)が収集した往来物とよばれる書簡文体の初等教科書・手本類のなかの1点であり、そのコレクションは関東大震災後の大正14年(1925)に購入・登録され、岡村文庫と称されている。
+ 内容は、徳川家康への謀反の疑いをかけられた上杉景勝が上洛・弁明を求められたのに対し、上洛の困難な理由、家康への逆心のないこと、讒言を用いるべきではないこと等、直江兼続が反論を加えたもの。家康のブレーンであった京都の臨済宗豊光寺の僧・西笑承兌に宛てた、慶長5年(1600)4月14日付けの返書の形を取っている。
  「直江状」は、同年の関が原の戦へとつながる家康の会津上杉攻めの口実を作ったとして従来から注目されてきた。一方で、原本が未確認であり、古文書集に収録された写本や総合図書館所蔵本のように版本として流布してきたこともあり、その表記法や内容等から歴史的資料としての信憑性を疑う説も提出されている。少なくとも総合図書館所蔵本の性格を考える上では、かつて往来物として収集されたことに留意しておいてよいだろう。</t>
   </si>
   <si>
-    <t>ライセンス</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
     <t>daaf81b0-f1a7-435c-9216-a8fb56390887</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/</t>
   </si>
   <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/document/daaf81b0-f1a7-435c-9216-a8fb56390887</t>
   </si>
   <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bd56abac4d291f381b7cf64e6fa3b9b6bc59b44b.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/13</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
     <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
   </si>
   <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
     <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
   </si>
   <si>
-    <t>viewingHint</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/daaf81b0-f1a7-435c-9216-a8fb56390887/manifest</t>
   </si>
   <si>
-    <t>IIIF Search API URI</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca511282300c05c01325a12250bccd236d07b412c68619bcbdeef7aeee477b88e0a36b82a365e7547973e593dc5e5f63283f0f51ab35ab6fb637d961593c5f2ed7bb4a024a0c4b472560a27b3f28cdb73012625986b19fbb1827fec71f179323c8</t>
   </si>
   <si>
-    <t>アノテーション付きIIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/8/manifest.json</t>
   </si>
   <si>
-    <t>Link to TAPAS Project</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
     <t>http://tapasproject.org/tapas-commons/files/直江状</t>
-  </si>
-  <si>
-    <t>Text with Rich Text Format</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -217,23 +210,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -521,200 +507,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" t="s">
-        <v>50</v>
-      </c>
       <c r="T1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
       <c r="S2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2">
+        <v>38</v>
+      </c>
+      <c r="T2" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s"/>
       <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s">
         <v>49</v>
       </c>
-      <c r="T3">
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="n">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="J3" r:id="rId6" location="rightToLeftDirection"/>
-    <hyperlink ref="O3" r:id="rId7"/>
-    <hyperlink ref="P3" r:id="rId8"/>
-    <hyperlink ref="Q3" r:id="rId9"/>
-    <hyperlink ref="R3" r:id="rId10"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/naoe/metadata/data.xlsx
+++ b/docs/collections/naoe/metadata/data.xlsx
@@ -1,201 +1,208 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>直江状</t>
+  </si>
+  <si>
     <t>説明</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>【解題】直江状(東京大学総合図書館所蔵承応三年刊本)_x000D_
+ 安土桃山時代から江戸時代前期の大名上杉景勝に仕えた重臣直江兼続(1560~1619)が記したとされる書状を、承応3年(1654)に京都の中村五郎右衛門が刊行したもの。全28丁からなる和装本で、大きさは26.5×17.6cm、総合図書館の貴重書に指定されている(請求番号A00:4631)。藻類学者・水産学者であった岡村金太郎(1867~1935)が収集した往来物とよばれる書簡文体の初等教科書・手本類のなかの1点であり、そのコレクションは関東大震災後の大正14年(1925)に購入・登録され、岡村文庫と称されている。_x000D_
+_x000D_
+ 内容は、徳川家康への謀反の疑いをかけられた上杉景勝が上洛・弁明を求められたのに対し、上洛の困難な理由、家康への逆心のないこと、讒言を用いるべきではないこと等、直江兼続が反論を加えたもの。家康のブレーンであった京都の臨済宗豊光寺の僧・西笑承兌に宛てた、慶長5年(1600)4月14日付けの返書の形を取っている。_x000D_
+_x000D_
+ 「直江状」は、同年の関が原の戦へとつながる家康の会津上杉攻めの口実を作ったとして従来から注目されてきた。一方で、原本が未確認であり、古文書集に収録された写本や総合図書館所蔵本のように版本として流布してきたこともあり、その表記法や内容等から歴史的資料としての信憑性を疑う説も提出されている。少なくとも総合図書館所蔵本の性格を考える上では、かつて往来物として収集されたことに留意しておいてよいだろう。</t>
+  </si>
+  <si>
     <t>ライセンス</t>
   </si>
   <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>daaf81b0-f1a7-435c-9216-a8fb56390887</t>
+  </si>
+  <si>
     <t>ウェブサイトURL</t>
   </si>
   <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/document/daaf81b0-f1a7-435c-9216-a8fb56390887</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bd56abac4d291f381b7cf64e6fa3b9b6bc59b44b.jpg</t>
+  </si>
+  <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/13</t>
+  </si>
+  <si>
     <t>帰属</t>
   </si>
   <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
     <t>viewingHint</t>
   </si>
   <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
     <t>ソート用項目</t>
   </si>
   <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
     <t>西暦</t>
   </si>
   <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/daaf81b0-f1a7-435c-9216-a8fb56390887/manifest</t>
+  </si>
+  <si>
     <t>IIIF Search API URI</t>
   </si>
   <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca511282300c05c01325a12250bccd236d07b412c68619bcbdeef7aeee477b88e0a36b82a365e7547973e593dc5e5f63283f0f51ab35ab6fb637d961593c5f2ed7bb4a024a0c4b472560a27b3f28cdb73012625986b19fbb1827fec71f179323c8</t>
+  </si>
+  <si>
     <t>アノテーション付きIIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/8/manifest.json</t>
+  </si>
+  <si>
     <t>Link to TAPAS Project</t>
   </si>
   <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>http://tapasproject.org/tapas-commons/files/直江状</t>
+  </si>
+  <si>
     <t>Text with Rich Text Format</t>
   </si>
   <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t># of media</t>
-  </si>
-  <si>
-    <t>dcterms:title</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t>直江状</t>
-  </si>
-  <si>
-    <t>【解題】直江状(東京大学総合図書館所蔵承応三年刊本)
- 安土桃山時代から江戸時代前期の大名上杉景勝に仕えた重臣直江兼続(1560~1619)が記したとされる書状を、承応3年(1654)に京都の中村五郎右衛門が刊行したもの。全28丁からなる和装本で、大きさは26.5×17.6cm、総合図書館の貴重書に指定されている(請求番号A00:4631)。藻類学者・水産学者であった岡村金太郎(1867~1935)が収集した往来物とよばれる書簡文体の初等教科書・手本類のなかの1点であり、そのコレクションは関東大震災後の大正14年(1925)に購入・登録され、岡村文庫と称されている。
- 内容は、徳川家康への謀反の疑いをかけられた上杉景勝が上洛・弁明を求められたのに対し、上洛の困難な理由、家康への逆心のないこと、讒言を用いるべきではないこと等、直江兼続が反論を加えたもの。家康のブレーンであった京都の臨済宗豊光寺の僧・西笑承兌に宛てた、慶長5年(1600)4月14日付けの返書の形を取っている。
- 「直江状」は、同年の関が原の戦へとつながる家康の会津上杉攻めの口実を作ったとして従来から注目されてきた。一方で、原本が未確認であり、古文書集に収録された写本や総合図書館所蔵本のように版本として流布してきたこともあり、その表記法や内容等から歴史的資料としての信憑性を疑う説も提出されている。少なくとも総合図書館所蔵本の性格を考える上では、かつて往来物として収集されたことに留意しておいてよいだろう。</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
-  </si>
-  <si>
-    <t>daaf81b0-f1a7-435c-9216-a8fb56390887</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/document/daaf81b0-f1a7-435c-9216-a8fb56390887</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bd56abac4d291f381b7cf64e6fa3b9b6bc59b44b.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/13</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/daaf81b0-f1a7-435c-9216-a8fb56390887/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca511282300c05c01325a12250bccd236d07b412c68619bcbdeef7aeee477b88e0a36b82a365e7547973e593dc5e5f63283f0f51ab35ab6fb637d961593c5f2ed7bb4a024a0c4b472560a27b3f28cdb73012625986b19fbb1827fec71f179323c8</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/8/manifest.json</t>
-  </si>
-  <si>
-    <t>http://tapasproject.org/tapas-commons/files/直江状</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -210,16 +217,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -507,198 +521,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="n">
+        <v>51</v>
+      </c>
+      <c r="T2">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="P3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s">
+      <c r="R3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" t="s"/>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="J3" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="O3" r:id="rId7"/>
+    <hyperlink ref="P3" r:id="rId8"/>
+    <hyperlink ref="Q3" r:id="rId9"/>
+    <hyperlink ref="R3" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/collections/naoe/metadata/data.xlsx
+++ b/docs/collections/naoe/metadata/data.xlsx
@@ -1,208 +1,207 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>iiif viewer</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>直江状</t>
   </si>
   <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>【解題】直江状(東京大学総合図書館所蔵承応三年刊本)_x000D_
- 安土桃山時代から江戸時代前期の大名上杉景勝に仕えた重臣直江兼続(1560~1619)が記したとされる書状を、承応3年(1654)に京都の中村五郎右衛門が刊行したもの。全28丁からなる和装本で、大きさは26.5×17.6cm、総合図書館の貴重書に指定されている(請求番号A00:4631)。藻類学者・水産学者であった岡村金太郎(1867~1935)が収集した往来物とよばれる書簡文体の初等教科書・手本類のなかの1点であり、そのコレクションは関東大震災後の大正14年(1925)に購入・登録され、岡村文庫と称されている。_x000D_
-_x000D_
- 内容は、徳川家康への謀反の疑いをかけられた上杉景勝が上洛・弁明を求められたのに対し、上洛の困難な理由、家康への逆心のないこと、讒言を用いるべきではないこと等、直江兼続が反論を加えたもの。家康のブレーンであった京都の臨済宗豊光寺の僧・西笑承兌に宛てた、慶長5年(1600)4月14日付けの返書の形を取っている。_x000D_
-_x000D_
+    <t>【解題】直江状(東京大学総合図書館所蔵承応三年刊本)
+ 安土桃山時代から江戸時代前期の大名上杉景勝に仕えた重臣直江兼続(1560~1619)が記したとされる書状を、承応3年(1654)に京都の中村五郎右衛門が刊行したもの。全28丁からなる和装本で、大きさは26.5×17.6cm、総合図書館の貴重書に指定されている(請求番号A00:4631)。藻類学者・水産学者であった岡村金太郎(1867~1935)が収集した往来物とよばれる書簡文体の初等教科書・手本類のなかの1点であり、そのコレクションは関東大震災後の大正14年(1925)に購入・登録され、岡村文庫と称されている。
+ 内容は、徳川家康への謀反の疑いをかけられた上杉景勝が上洛・弁明を求められたのに対し、上洛の困難な理由、家康への逆心のないこと、讒言を用いるべきではないこと等、直江兼続が反論を加えたもの。家康のブレーンであった京都の臨済宗豊光寺の僧・西笑承兌に宛てた、慶長5年(1600)4月14日付けの返書の形を取っている。
  「直江状」は、同年の関が原の戦へとつながる家康の会津上杉攻めの口実を作ったとして従来から注目されてきた。一方で、原本が未確認であり、古文書集に収録された写本や総合図書館所蔵本のように版本として流布してきたこともあり、その表記法や内容等から歴史的資料としての信憑性を疑う説も提出されている。少なくとも総合図書館所蔵本の性格を考える上では、かつて往来物として収集されたことに留意しておいてよいだろう。</t>
   </si>
   <si>
-    <t>ライセンス</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/daaf81b0-f1a7-435c-9216-a8fb56390887.json</t>
   </si>
   <si>
     <t>daaf81b0-f1a7-435c-9216-a8fb56390887</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/</t>
   </si>
   <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/naoe/document/daaf81b0-f1a7-435c-9216-a8fb56390887</t>
   </si>
   <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bd56abac4d291f381b7cf64e6fa3b9b6bc59b44b.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/13</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
     <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
   </si>
   <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
     <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
   </si>
   <si>
-    <t>viewingHint</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/daaf81b0-f1a7-435c-9216-a8fb56390887/manifest</t>
   </si>
   <si>
-    <t>IIIF Search API URI</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca511282300c05c01325a12250bccd236d07b412c68619bcbdeef7aeee477b88e0a36b82a365e7547973e593dc5e5f63283f0f51ab35ab6fb637d961593c5f2ed7bb4a024a0c4b472560a27b3f28cdb73012625986b19fbb1827fec71f179323c8</t>
   </si>
   <si>
-    <t>アノテーション付きIIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/8/manifest.json</t>
   </si>
   <si>
-    <t>Link to TAPAS Project</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
     <t>http://tapasproject.org/tapas-commons/files/直江状</t>
-  </si>
-  <si>
-    <t>Text with Rich Text Format</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -217,23 +216,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -521,200 +513,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="S1" t="s">
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="L3" t="s"/>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T3">
+      <c r="R3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="J3" r:id="rId6" location="rightToLeftDirection"/>
-    <hyperlink ref="O3" r:id="rId7"/>
-    <hyperlink ref="P3" r:id="rId8"/>
-    <hyperlink ref="Q3" r:id="rId9"/>
-    <hyperlink ref="R3" r:id="rId10"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/naoe/metadata/data.xlsx
+++ b/docs/collections/naoe/metadata/data.xlsx
@@ -176,7 +176,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/daaf81b0-f1a7-435c-9216-a8fb56390887/manifest</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca511282300c05c01325a12250bccd236d07b412c68619bcbdeef7aeee477b88e0a36b82a365e7547973e593dc5e5f63283f0f51ab35ab6fb637d961593c5f2ed7bb4a024a0c4b472560a27b3f28cdb73012625986b19fbb1827fec71f179323c8</t>
+    <t>https://w3id.org/dhj/i3sa/https://archdataset.dl.itc.u-tokyo.ac.jp/collections/naoe/text/xml/daaf81b0-f1a7-435c-9216-a8fb56390887.xml</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/8/manifest.json</t>

--- a/docs/collections/naoe/metadata/data.xlsx
+++ b/docs/collections/naoe/metadata/data.xlsx
@@ -15,11 +15,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>タイトルよみ</t>
+  </si>
+  <si>
+    <t>請求記号</t>
+  </si>
+  <si>
+    <t>書誌事項</t>
+  </si>
+  <si>
     <t>説明</t>
   </si>
   <si>
@@ -81,6 +90,15 @@
   </si>
   <si>
     <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>dcndl:titleTranscription</t>
+  </si>
+  <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>archiveshub:note</t>
   </si>
   <si>
     <t>dcterms:description</t>
@@ -518,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +544,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,126 +608,147 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" t="n">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="n">
-        <v>31</v>
-      </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
       <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
       <c r="S3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="n">
+        <v>57</v>
+      </c>
+      <c r="T3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="n">
         <v>31</v>
       </c>
     </row>
